--- a/Excel_Functions.xlsx
+++ b/Excel_Functions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE0DDF-2540-4CAC-A014-F14A45150698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="5" r:id="rId1"/>
@@ -16,15 +22,16 @@
     <sheet name="VLookup" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Mysearch">VLookup!$A$1:$D$10</definedName>
     <definedName name="OurSearch">VLookup!$A$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,6 +40,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -330,12 +340,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,37 +486,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -520,62 +511,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Ctx_Hyperlink" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Ctx_Hyperlink" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="5"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -602,7 +590,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.663264699077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.663264699077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C7" sheet="Sumif"/>
   </cacheSource>
@@ -648,7 +636,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.675568981482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.675568981482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G44" sheet="Sumifs"/>
   </cacheSource>
@@ -1478,7 +1466,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M12:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1540,7 +1528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1594,7 +1582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L6:M10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1948,37 +1936,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +1977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +1991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2013,12 +2001,12 @@
       <c r="C4" s="4">
         <v>36</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="8">
         <f>SUM(C2:C7)</f>
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2041,7 @@
       <c r="C7" s="4">
         <v>60</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="8">
         <f>SUMIF(C2:C7,"&gt;50")</f>
         <v>211</v>
       </c>
@@ -2064,14 +2052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
@@ -2081,22 +2069,22 @@
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B2" t="s">
@@ -2109,8 +2097,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
@@ -2123,8 +2111,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
@@ -2137,8 +2125,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -2151,8 +2139,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -2165,131 +2153,116 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="35" t="str">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="str">
         <f t="array" ref="A16:F19">TRANSPOSE(A1:D6)</f>
         <v>Data</v>
       </c>
-      <c r="B16" s="35" t="str">
+      <c r="B16" s="26" t="str">
         <v>Nancy,Smith,contoso Ltd</v>
       </c>
-      <c r="C16" s="35" t="str">
+      <c r="C16" s="26" t="str">
         <v>Andy,North,fabrikam Ltd</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="26" t="str">
         <v>Jan,Kotas,relecloud Ltd</v>
       </c>
-      <c r="E16" s="35" t="str">
+      <c r="E16" s="26" t="str">
         <v>Mariya,Jones,contoso Ltd</v>
       </c>
-      <c r="F16" s="35" t="str">
+      <c r="F16" s="26" t="str">
         <v>Yvonne,McKay,fabrikam Ltd</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="35" t="str">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="str">
         <v>First Name</v>
       </c>
-      <c r="B17" s="35" t="str">
+      <c r="B17" s="26" t="str">
         <v>Nancy</v>
       </c>
-      <c r="C17" s="35" t="str">
+      <c r="C17" s="26" t="str">
         <v>Andy</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="26" t="str">
         <v>Jan</v>
       </c>
-      <c r="E17" s="35" t="str">
+      <c r="E17" s="26" t="str">
         <v>Mariya</v>
       </c>
-      <c r="F17" s="35" t="str">
+      <c r="F17" s="26" t="str">
         <v>Yvonne</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="35" t="str">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="str">
         <v>Last Name</v>
       </c>
-      <c r="B18" s="35" t="str">
+      <c r="B18" s="26" t="str">
         <v>Smith</v>
       </c>
-      <c r="C18" s="35" t="str">
+      <c r="C18" s="26" t="str">
         <v>North</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="26" t="str">
         <v>Kotas</v>
       </c>
-      <c r="E18" s="35" t="str">
+      <c r="E18" s="26" t="str">
         <v>Jones</v>
       </c>
-      <c r="F18" s="35" t="str">
+      <c r="F18" s="26" t="str">
         <v>McKay</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="35" t="str">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="str">
         <v>Company Name</v>
       </c>
-      <c r="B19" s="35" t="str">
+      <c r="B19" s="26" t="str">
         <v>contoso Ltd</v>
       </c>
-      <c r="C19" s="35" t="str">
+      <c r="C19" s="26" t="str">
         <v>fabrikam Ltd</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="26" t="str">
         <v>relecloud Ltd</v>
       </c>
-      <c r="E19" s="35" t="str">
+      <c r="E19" s="26" t="str">
         <v>contoso Ltd</v>
       </c>
-      <c r="F19" s="35" t="str">
+      <c r="F19" s="26" t="str">
         <v>fabrikam Ltd</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="Andy.North@fabrikam.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="Nancy.Smith@contoso.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="Jan.Kotas@relecloud.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="Mariya.Jones@contoso.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="Yvonne.McKay@fabrikam.com"/>
-    <hyperlink ref="C10" r:id="rId6" display="Andy.North@fabrikam.com"/>
-    <hyperlink ref="B10" r:id="rId7" display="Nancy.Smith@contoso.com"/>
-    <hyperlink ref="D10" r:id="rId8" display="Jan.Kotas@relecloud.com"/>
-    <hyperlink ref="E10" r:id="rId9" display="Mariya.Jones@contoso.com"/>
-    <hyperlink ref="F10" r:id="rId10" display="Yvonne.McKay@fabrikam.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="Andy.North@fabrikam.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="Nancy.Smith@contoso.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="Jan.Kotas@relecloud.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="Mariya.Jones@contoso.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="Yvonne.McKay@fabrikam.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E10" r:id="rId6" display="Mariya.Jones@contoso.com" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId7" display="Yvonne.McKay@fabrikam.com" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId8" display="Andy.North@fabrikam.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId9" display="Nancy.Smith@contoso.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId10" display="Jan.Kotas@relecloud.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -2297,57 +2270,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="51" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="57" width="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43471</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
       <c r="F2" s="5">
@@ -2356,28 +2340,28 @@
       <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43488</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
       <c r="F3" s="5">
@@ -2387,20 +2371,20 @@
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43505</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
       <c r="F4" s="5">
@@ -2409,31 +2393,31 @@
       <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
-        <f ca="1">SUMIF(B2:B44,"East",E8:E44)</f>
-        <v>705</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="J4" s="9">
+        <f>SUMIF(B2:B44,"East",E2:E44)</f>
+        <v>691</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43522</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
       <c r="F5" s="5">
@@ -2442,27 +2426,27 @@
       <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="15">
+      <c r="M5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>1199</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43539</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
       <c r="F6" s="5">
@@ -2471,27 +2455,27 @@
       <c r="G6" s="6">
         <v>167.44</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43556</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
       <c r="F7" s="5">
@@ -2500,14 +2484,14 @@
       <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43573</v>
       </c>
@@ -2529,14 +2513,14 @@
       <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>2121</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43590</v>
       </c>
@@ -2559,7 +2543,7 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43607</v>
       </c>
@@ -2581,15 +2565,15 @@
       <c r="G10" s="6">
         <v>63.68</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43624</v>
       </c>
@@ -2612,7 +2596,7 @@
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43641</v>
       </c>
@@ -2634,18 +2618,18 @@
       <c r="G12" s="6">
         <v>449.1</v>
       </c>
-      <c r="J12" s="16">
-        <f>SUMIF(D8:D44,"Binder",G2:G44)</f>
-        <v>5212.7199999999993</v>
-      </c>
-      <c r="M12" s="13" t="s">
+      <c r="J12" s="9">
+        <f>SUMIF(D2:D44,"Binder",G2:G44)</f>
+        <v>9577.65</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43658</v>
       </c>
@@ -2667,14 +2651,14 @@
       <c r="G13" s="6">
         <v>57.71</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="M13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13">
         <v>9577.65</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43675</v>
       </c>
@@ -2696,14 +2680,14 @@
       <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43692</v>
       </c>
@@ -2725,14 +2709,14 @@
       <c r="G15" s="6">
         <v>174.65</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15">
         <v>2045.2199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43709</v>
       </c>
@@ -2754,14 +2738,14 @@
       <c r="G16" s="6">
         <v>250</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16">
         <v>4169.87</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43726</v>
       </c>
@@ -2783,14 +2767,14 @@
       <c r="G17" s="6">
         <v>255.84</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17">
         <v>2135.1400000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43743</v>
       </c>
@@ -2812,14 +2796,14 @@
       <c r="G18" s="6">
         <v>251.72</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18">
         <v>19627.879999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43760</v>
       </c>
@@ -2842,7 +2826,7 @@
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43777</v>
       </c>
@@ -2865,7 +2849,7 @@
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43794</v>
       </c>
@@ -2888,7 +2872,7 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43811</v>
       </c>
@@ -2911,7 +2895,7 @@
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43828</v>
       </c>
@@ -2934,7 +2918,7 @@
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43845</v>
       </c>
@@ -2957,7 +2941,7 @@
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43862</v>
       </c>
@@ -2980,7 +2964,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43879</v>
       </c>
@@ -3003,7 +2987,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43897</v>
       </c>
@@ -3026,7 +3010,7 @@
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43914</v>
       </c>
@@ -3049,7 +3033,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43931</v>
       </c>
@@ -3072,7 +3056,7 @@
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43948</v>
       </c>
@@ -3095,7 +3079,7 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43965</v>
       </c>
@@ -3118,7 +3102,7 @@
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43982</v>
       </c>
@@ -3141,7 +3125,7 @@
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43999</v>
       </c>
@@ -3164,7 +3148,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44016</v>
       </c>
@@ -3187,7 +3171,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44033</v>
       </c>
@@ -3210,7 +3194,7 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44050</v>
       </c>
@@ -3233,7 +3217,7 @@
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44067</v>
       </c>
@@ -3256,7 +3240,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44084</v>
       </c>
@@ -3279,7 +3263,7 @@
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44101</v>
       </c>
@@ -3302,7 +3286,7 @@
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44118</v>
       </c>
@@ -3325,7 +3309,7 @@
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44135</v>
       </c>
@@ -3348,7 +3332,7 @@
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44152</v>
       </c>
@@ -3371,7 +3355,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44169</v>
       </c>
@@ -3394,7 +3378,7 @@
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44186</v>
       </c>
@@ -3424,1115 +3408,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="8">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="8">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="9">
         <f>SUMIFS(G2:G44,B2:B44,"Central",D2:D44,"Pencil")</f>
         <v>1540.32</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="8">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="8">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="L7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>1540.3200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8">
         <v>363.70000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9">
         <v>231.12</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10">
         <v>2135.1400000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="8">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="8">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="8">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="9">
         <f>SUMIFS(E2:E44,C2:C44,"Jones",F2:F44,"&gt;4")</f>
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="8">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="8">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="8">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="9">
         <f>SUMIFS(E2:E44,C2:C44,"Jones", D2:D44,"&lt;&gt;Pencil")</f>
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="8">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="8">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="8">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="8">
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="8">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="8">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="8">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="8">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="8">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="8">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="8">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="8">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="8">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="8">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
     </row>
@@ -4542,61 +4523,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="8">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
       <c r="H2">
@@ -4607,34 +4588,34 @@
         <f>COUNTIF($C$2:$C$44,C2)&gt;3</f>
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
       <c r="H3">
@@ -4646,26 +4627,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
       <c r="H4">
@@ -4676,31 +4657,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="9">
         <f>COUNTIF(C2:C44,"Gill")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="8">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
       <c r="H5">
@@ -4712,26 +4693,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="8">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
       <c r="H6">
@@ -4742,36 +4723,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="8">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
       <c r="H7">
@@ -4783,26 +4763,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
       <c r="H8">
@@ -4814,26 +4794,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
       <c r="H9">
@@ -4845,26 +4825,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
       <c r="H10">
@@ -4876,26 +4856,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
       <c r="H11">
@@ -4907,26 +4887,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="8">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
       <c r="H12">
@@ -4938,26 +4918,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="8">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
       <c r="H13">
@@ -4969,26 +4949,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="8">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
       <c r="H14">
@@ -5000,26 +4980,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="8">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
       <c r="H15">
@@ -5031,26 +5011,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="8">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
       <c r="H16">
@@ -5062,26 +5042,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
       <c r="H17">
@@ -5093,26 +5073,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
       <c r="H18">
@@ -5124,26 +5104,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
       <c r="H19">
@@ -5155,26 +5135,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
       <c r="H20">
@@ -5186,26 +5166,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
       <c r="H21">
@@ -5217,26 +5197,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
       <c r="H22">
@@ -5248,26 +5228,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
       <c r="H23">
@@ -5279,26 +5259,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
       <c r="H24">
@@ -5310,26 +5290,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
       <c r="H25">
@@ -5341,26 +5321,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
       <c r="H26">
@@ -5372,26 +5352,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
       <c r="H27">
@@ -5403,26 +5383,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
       <c r="H28">
@@ -5434,26 +5414,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="8">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
       <c r="H29">
@@ -5465,26 +5445,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
       <c r="H30">
@@ -5496,26 +5476,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
       <c r="H31">
@@ -5527,26 +5507,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
       <c r="H32">
@@ -5558,26 +5538,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="8">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
       <c r="H33">
@@ -5589,26 +5569,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="8">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
       <c r="H34">
@@ -5620,26 +5600,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="8">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
       <c r="H35">
@@ -5651,26 +5631,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="8">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
       <c r="H36">
@@ -5682,26 +5662,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="8">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
       <c r="H37">
@@ -5713,26 +5693,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="8">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
       <c r="H38">
@@ -5744,26 +5724,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="8">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
       <c r="H39">
@@ -5775,26 +5755,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="8">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
       <c r="H40">
@@ -5806,26 +5786,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
       <c r="H41">
@@ -5837,26 +5817,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="8">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
       <c r="H42">
@@ -5868,26 +5848,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="8">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
       <c r="H43">
@@ -5899,26 +5879,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
       <c r="H44">
@@ -5941,1038 +5921,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="9">
         <f>COUNTIFS(A2:A44,"&gt;2-10-2019",B2:B44,"East")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="9">
         <f>COUNTIFS(D2:D44,"Pencil",C2:C44,"Gill")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
     </row>
@@ -6982,14 +6962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -7000,24 +6980,24 @@
     <col min="10" max="10" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="24"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -7031,7 +7011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -7044,15 +7024,15 @@
       <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -7066,7 +7046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -7080,7 +7060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -7093,14 +7073,14 @@
       <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G6">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -7113,15 +7093,15 @@
       <c r="D7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f>IFERROR(VLOOKUP(G6,OurSearch,2,0),"Not Found")</f>
+      <c r="G7" s="9" t="str">
+        <f>IFERROR(VLOOKUP(G6,Mysearch,2,0),"Not Found")</f>
         <v>Eden Connell</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -7135,7 +7115,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -7149,7 +7129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
